--- a/汽柴煤油2.0/eta/纯苯-Brent价差_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/纯苯-Brent价差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2339.1792</v>
+        <v>2505.6794</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1893.6187</v>
+        <v>1862.718</v>
       </c>
       <c r="C3" t="n">
-        <v>1908.1885</v>
+        <v>1851.4082</v>
       </c>
     </row>
     <row r="4">
